--- a/examples/sbtab/layout_model.xlsx
+++ b/examples/sbtab/layout_model.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="261">
   <si>
-    <t>!!!ObjTables objTablesVersion='0.0.8' date='2020-03-09 15:33:14'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' id='Compartment' name='Compartment' date='2020-03-09 15:33:14' objTablesVersion='0.0.8' document='TestModel layout' tableFormat='row'</t>
+    <t>!!!ObjTables schema='SBtab' objTablesVersion='0.0.8' date='2020-03-10 00:00:34'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compartment' name='Compartment' date='2020-03-10 00:00:34' objTablesVersion='0.0.8' document='TestModel layout'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6411,7 +6411,7 @@
     <t>Compartment_1</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Compound' name='Compound' date='2020-03-09 15:33:14' objTablesVersion='0.0.8' document='TestModel layout' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compound' name='Compound' date='2020-03-10 00:00:34' objTablesVersion='0.0.8' document='TestModel layout'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6480,7 +6480,7 @@
     <t>Species_2</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Definition' name='Definition' date='2020-03-09 15:33:14' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Definition' name='Definition' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6495,7 +6495,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Enzyme' name='Enzyme' date='2020-03-09 15:33:14' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Enzyme' name='Enzyme' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6516,7 +6516,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='FbcObjective' name='FbcObjective' date='2020-03-09 15:33:14' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='FbcObjective' name='FbcObjective' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6531,7 +6531,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Gene' name='Gene' date='2020-03-09 15:33:14' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Gene' name='Gene' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6561,7 +6561,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Layout' name='Layout' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' document='TestModel layout' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Layout' name='Layout' date='2020-03-10 00:00:34' objTablesVersion='0.0.8' document='TestModel layout'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6669,7 +6669,7 @@
     <t>SpeciesReferenceGlyph_4</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Measurement' name='Measurement' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Measurement' name='Measurement' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6681,7 +6681,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='PbConfig' name='PbConfig' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='PbConfig' name='PbConfig' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6690,16 +6690,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Position' name='Position' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Position' name='Position' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Protein' name='Protein' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
-  </si>
-  <si>
-    <t>!!ObjTables type='Data' id='Quantity' name='Quantity' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Protein' name='Protein' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Quantity' name='Quantity' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -6861,7 +6861,7 @@
     <t>!Parameter:SBML:parameter:id</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='QuantityInfo' name='QuantityInfo' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityInfo' name='QuantityInfo' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -6879,7 +6879,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -6918,7 +6918,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Reaction' name='Reaction' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' document='TestModel layout' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Reaction' name='Reaction' date='2020-03-10 00:00:34' objTablesVersion='0.0.8' document='TestModel layout'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -6996,7 +6996,7 @@
     <t xml:space="preserve">1 Species_2 &lt;=&gt; 1 Species_1 &lt;=&gt; </t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7008,7 +7008,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Regulator' name='Regulator' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Regulator' name='Regulator' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7020,7 +7020,7 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Relation' name='Relation' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relation' name='Relation' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!From</t>
@@ -7035,13 +7035,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='Relationship' name='Relationship' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relationship' name='Relationship' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrix' name='SparseMatrix' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrix' name='SparseMatrix' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7050,13 +7050,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7065,19 +7065,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7098,7 +7098,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables type='Data' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-09 15:33:15' objTablesVersion='0.0.8' tableFormat='row'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>

--- a/examples/sbtab/layout_model.xlsx
+++ b/examples/sbtab/layout_model.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="261">
   <si>
-    <t>!!!ObjTables schema='SBtab' objTablesVersion='0.0.8' date='2020-03-10 00:00:34'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compartment' name='Compartment' date='2020-03-10 00:00:34' objTablesVersion='0.0.8' document='TestModel layout'</t>
+    <t>!!!ObjTables schema='SBtab' objTablesVersion='0.0.9' date='2020-04-26 21:10:51'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compartment' name='Compartment' date='2020-04-26 21:10:51' objTablesVersion='0.0.9' document='TestModel layout'</t>
   </si>
   <si>
     <t>!Comment</t>
@@ -6411,7 +6411,7 @@
     <t>Compartment_1</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compound' name='Compound' date='2020-03-10 00:00:34' objTablesVersion='0.0.8' document='TestModel layout'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compound' name='Compound' date='2020-04-26 21:10:51' objTablesVersion='0.0.9' document='TestModel layout'</t>
   </si>
   <si>
     <t>!SBML:species:id</t>
@@ -6480,7 +6480,7 @@
     <t>Species_2</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Definition' name='Definition' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Definition' name='Definition' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!ComponentName</t>
@@ -6495,7 +6495,7 @@
     <t>!Format</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Enzyme' name='Enzyme' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Enzyme' name='Enzyme' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!CatalysedReaction</t>
@@ -6516,7 +6516,7 @@
     <t>!Gene</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='FbcObjective' name='FbcObjective' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='FbcObjective' name='FbcObjective' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!SBML:fbc:type</t>
@@ -6531,7 +6531,7 @@
     <t>!SBML:fbc:reaction</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Gene' name='Gene' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Gene' name='Gene' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!LocusName</t>
@@ -6561,7 +6561,7 @@
     <t>!SBML:fbc:Label</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Layout' name='Layout' date='2020-03-10 00:00:34' objTablesVersion='0.0.8' document='TestModel layout'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Layout' name='Layout' date='2020-04-26 21:10:51' objTablesVersion='0.0.9' document='TestModel layout'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6669,7 +6669,7 @@
     <t>SpeciesReferenceGlyph_4</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Measurement' name='Measurement' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Measurement' name='Measurement' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Sample</t>
@@ -6681,7 +6681,7 @@
     <t>!ValueType</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='PbConfig' name='PbConfig' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='PbConfig' name='PbConfig' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Option</t>
@@ -6690,16 +6690,16 @@
     <t>!Value</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Position' name='Position' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Position' name='Position' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Element</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Protein' name='Protein' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Quantity' name='Quantity' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Protein' name='Protein' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
+  </si>
+  <si>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Quantity' name='Quantity' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Quantity</t>
@@ -6861,7 +6861,7 @@
     <t>!Parameter:SBML:parameter:id</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityInfo' name='QuantityInfo' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityInfo' name='QuantityInfo' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Constant</t>
@@ -6879,7 +6879,7 @@
     <t>!SBMLElementType</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityMatrix' name='QuantityMatrix' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityMatrix' name='QuantityMatrix' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!&gt;Table:Column</t>
@@ -6918,7 +6918,7 @@
     <t>!&gt;TP:t1:std</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Reaction' name='Reaction' date='2020-03-10 00:00:34' objTablesVersion='0.0.8' document='TestModel layout'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Reaction' name='Reaction' date='2020-04-26 21:10:51' objTablesVersion='0.0.9' document='TestModel layout'</t>
   </si>
   <si>
     <t>!Modifier</t>
@@ -6996,7 +6996,7 @@
     <t xml:space="preserve">1 Species_2 &lt;=&gt; 1 Species_1 &lt;=&gt; </t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Stoichiometry</t>
@@ -7008,7 +7008,7 @@
     <t>!Product</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Regulator' name='Regulator' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Regulator' name='Regulator' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!TargetGene</t>
@@ -7020,13 +7020,13 @@
     <t>!TargetPromoter</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relation' name='Relation' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
-  </si>
-  <si>
-    <t>!From</t>
-  </si>
-  <si>
-    <t>!To</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relation' name='Relation' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
+  </si>
+  <si>
+    <t>!FromObject</t>
+  </si>
+  <si>
+    <t>!ToObject</t>
   </si>
   <si>
     <t>!IsSymmetric</t>
@@ -7035,13 +7035,13 @@
     <t>!Value:QuantityType</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relationship' name='Relationship' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relationship' name='Relationship' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!Relation</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrix' name='SparseMatrix' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrix' name='SparseMatrix' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!RowID</t>
@@ -7050,13 +7050,13 @@
     <t>!ColumnID</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!ColumnString</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!RowNumber</t>
@@ -7065,19 +7065,19 @@
     <t>!ColumnNumber</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!RowString</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!ReactionID</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!UID:Contingency</t>
@@ -7098,7 +7098,7 @@
     <t>!InternalComplexID</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconReactionList' name='rxnconReactionList' date='2020-03-10 00:00:34' objTablesVersion='0.0.8'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconReactionList' name='rxnconReactionList' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
   </si>
   <si>
     <t>!UID:Reaction</t>
@@ -9863,10 +9863,10 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Type of quantitative relation&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Type of quantitative relation&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="F2:F3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="From" error="Element at beginning of arrow&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="From" prompt="Element at beginning of arrow&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G2:G3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="To" error="Element at arrowhead&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="To" prompt="Element at arrowhead&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H2:H3">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="FromObject" error="Element at beginning of arrow&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="FromObject" prompt="Element at beginning of arrow&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="G2:G3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ToObject" error="Element at arrowhead&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ToObject" prompt="Element at arrowhead&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="H2:H3">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="IsSymmetric" error="Flag indicating non-symmetric relations&#10;&#10;Value must be &quot;True&quot; or &quot;False&quot;." promptTitle="IsSymmetric" prompt="Flag indicating non-symmetric relations&#10;&#10;Select &quot;True&quot; or &quot;False&quot;." sqref="I2:I3">
@@ -9938,10 +9938,10 @@
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
     </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="From" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="From" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
-      <formula1>255</formula1>
-    </dataValidation>
-    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="To" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="To" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="FromObject" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="FromObject" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="B2:B3">
+      <formula1>255</formula1>
+    </dataValidation>
+    <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ToObject" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ToObject" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="C2:C3">
       <formula1>255</formula1>
     </dataValidation>
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Value" error="Value must be an integer." promptTitle="Value" prompt="Enter an integer." sqref="D2:D3">

--- a/examples/sbtab/layout_model.xlsx
+++ b/examples/sbtab/layout_model.xlsx
@@ -35,32 +35,32 @@
     <sheet name="!!rxnconReactionList" sheetId="26" r:id="rId26"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!Compartment'!$A$3:$T$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!Compound'!$A$2:$AI$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!!Definition'!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!!Enzyme'!$A$2:$S$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!FbcObjective'!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!!Gene'!$A$2:$V$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!!Layout'!$A$2:$M$28</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'!!Measurement'!$A$2:$E$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!!PbConfig'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'!!Position'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'!!Protein'!$A$2:$O$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!!Quantity'!$A$2:$BW$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!!QuantityInfo'!$A$2:$S$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'!!QuantityMatrix'!$A$2:$AW$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'!!Reaction'!$A$2:$AU$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'!!ReactionStoichiometry'!$A$2:$F$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!!Regulator'!$A$2:$Q$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!!Relation'!$A$2:$J$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'!!Relationship'!$A$2:$G$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'!!rxnconContingencyList'!$A$2:$H$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'!!rxnconReactionList'!$A$2:$L$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'!!SparseMatrix'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'!!SparseMatrixColumn'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!!SparseMatrixOrdered'!$A$2:$C$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'!!SparseMatrixRow'!$A$2:$B$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'!!StoichiometricMatrix'!$A$2:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'!!Compartment'!$A$3:$B$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'!!Compound'!$A$2:$D$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'!!Definition'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'!!Enzyme'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'!!FbcObjective'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'!!Gene'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'!!Layout'!$A$2:$J$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'!!Measurement'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'!!PbConfig'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">'!!Position'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">'!!Protein'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">'!!Quantity'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">'!!QuantityInfo'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">'!!QuantityMatrix'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">'!!Reaction'!$A$2:$J$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">'!!ReactionStoichiometry'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">'!!Regulator'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">'!!Relation'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">'!!Relationship'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">'!!rxnconContingencyList'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">'!!rxnconReactionList'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">'!!SparseMatrix'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">'!!SparseMatrixColumn'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">'!!SparseMatrixOrdered'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">'!!SparseMatrixRow'!$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">'!!StoichiometricMatrix'!$A$2</definedName>
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -6340,138 +6340,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="79">
   <si>
-    <t>!!!ObjTables schema='SBtab' objTablesVersion='0.0.9' date='2020-04-26 21:10:51'</t>
+    <t>!!!ObjTables schema='SBtab' objTablesVersion='0.0.9' date='2020-04-27 01:13:41'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compartment' name='Compartment' date='2020-04-26 21:10:51' objTablesVersion='0.0.9' document='TestModel layout'</t>
-  </si>
-  <si>
-    <t>!Comment</t>
-  </si>
-  <si>
-    <t>!ReferenceName</t>
-  </si>
-  <si>
-    <t>!ReferencePubMed</t>
-  </si>
-  <si>
-    <t>!ReferenceDOI</t>
-  </si>
-  <si>
-    <t>!Description</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compartment' name='Compartment' date='2020-04-27 01:13:41' objTablesVersion='0.0.9' document='TestModel layout'</t>
   </si>
   <si>
     <t>!Name</t>
   </si>
   <si>
-    <t>!MiriamAnnotations</t>
-  </si>
-  <si>
-    <t>!Type</t>
-  </si>
-  <si>
-    <t>!Symbol</t>
-  </si>
-  <si>
-    <t>!PositionX</t>
-  </si>
-  <si>
-    <t>!PositionY</t>
-  </si>
-  <si>
     <t>!ID</t>
-  </si>
-  <si>
-    <t>!SBML:compartment:id</t>
-  </si>
-  <si>
-    <t>!OuterCompartment</t>
-  </si>
-  <si>
-    <t>!OuterCompartment:SBML:compartment:id</t>
-  </si>
-  <si>
-    <t>!Size</t>
-  </si>
-  <si>
-    <t>!Unit</t>
-  </si>
-  <si>
-    <t>!SBOTerm</t>
-  </si>
-  <si>
-    <t>!Identifiers</t>
-  </si>
-  <si>
-    <t>!Identifiers:sbo.go</t>
   </si>
   <si>
     <t>Compartment_1</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Compound' name='Compound' date='2020-04-26 21:10:51' objTablesVersion='0.0.9' document='TestModel layout'</t>
-  </si>
-  <si>
-    <t>!SBML:species:id</t>
-  </si>
-  <si>
-    <t>!SBML:speciestype:id</t>
-  </si>
-  <si>
-    <t>!InitialValue</t>
-  </si>
-  <si>
-    <t>!InitialConcentration</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compound' name='Compound' date='2020-04-27 01:13:41' objTablesVersion='0.0.9' document='TestModel layout'</t>
   </si>
   <si>
     <t>!Location</t>
   </si>
   <si>
-    <t>!State</t>
-  </si>
-  <si>
-    <t>!CompoundSumFormula</t>
-  </si>
-  <si>
-    <t>!StructureFormula</t>
-  </si>
-  <si>
-    <t>!Charge</t>
-  </si>
-  <si>
-    <t>!Mass</t>
-  </si>
-  <si>
     <t>!IsConstant</t>
   </si>
   <si>
-    <t>!EnzymeRole</t>
-  </si>
-  <si>
-    <t>!RegulatorRole</t>
-  </si>
-  <si>
-    <t>!Identifiers:sbo.kegg</t>
-  </si>
-  <si>
-    <t>!Identifiers:kegg.compound</t>
-  </si>
-  <si>
-    <t>!Identifiers:obo.chebi</t>
-  </si>
-  <si>
-    <t>!SBML:fbc:ChemicalFormula</t>
-  </si>
-  <si>
-    <t>!SBML:fbc:Charge</t>
-  </si>
-  <si>
     <t>!HasOnlySubstanceUnits</t>
-  </si>
-  <si>
-    <t>!NameForPlots</t>
   </si>
   <si>
     <t>Species_1</t>
@@ -6480,88 +6375,19 @@
     <t>Species_2</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Definition' name='Definition' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Definition' name='Definition' date='2020-04-27 01:13:41' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!ComponentName</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Enzyme' name='Enzyme' date='2020-04-27 01:13:41' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!ComponentType</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='FbcObjective' name='FbcObjective' date='2020-04-27 01:13:41' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!IsPartOf</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Gene' name='Gene' date='2020-04-27 01:13:41' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!Format</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Enzyme' name='Enzyme' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!CatalysedReaction</t>
-  </si>
-  <si>
-    <t>!KineticLaw</t>
-  </si>
-  <si>
-    <t>!KineticLaw:Name</t>
-  </si>
-  <si>
-    <t>!KineticLaw:Formula</t>
-  </si>
-  <si>
-    <t>!Pathway</t>
-  </si>
-  <si>
-    <t>!Gene</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='FbcObjective' name='FbcObjective' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!SBML:fbc:type</t>
-  </si>
-  <si>
-    <t>!SBML:fbc:active</t>
-  </si>
-  <si>
-    <t>!SBML:fbc:objective</t>
-  </si>
-  <si>
-    <t>!SBML:fbc:reaction</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Gene' name='Gene' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!LocusName</t>
-  </si>
-  <si>
-    <t>!GeneProduct</t>
-  </si>
-  <si>
-    <t>!GeneProduct:SBML:species:id</t>
-  </si>
-  <si>
-    <t>!Operon</t>
-  </si>
-  <si>
-    <t>!SBML:fbc:ID</t>
-  </si>
-  <si>
-    <t>!SBML:fbc:Name</t>
-  </si>
-  <si>
-    <t>!SBML:fbc:GeneProduct</t>
-  </si>
-  <si>
-    <t>!SBML:fbc:GeneAssociation</t>
-  </si>
-  <si>
-    <t>!SBML:fbc:Label</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Layout' name='Layout' date='2020-04-26 21:10:51' objTablesVersion='0.0.9' document='TestModel layout'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Layout' name='Layout' date='2020-04-27 01:13:41' objTablesVersion='0.0.9' document='TestModel layout'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6589,12 +6415,6 @@
   </si>
   <si>
     <t>!SBML:layout:height</t>
-  </si>
-  <si>
-    <t>!SBML:layout:text</t>
-  </si>
-  <si>
-    <t>!SBML:layout:speciesRole</t>
   </si>
   <si>
     <t>Layout_1</t>
@@ -6669,274 +6489,31 @@
     <t>SpeciesReferenceGlyph_4</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Measurement' name='Measurement' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Measurement' name='Measurement' date='2020-04-27 01:13:41' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!Sample</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='PbConfig' name='PbConfig' date='2020-04-27 01:13:41' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!Time</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Position' name='Position' date='2020-04-27 01:13:41' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!ValueType</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Protein' name='Protein' date='2020-04-27 01:13:41' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='PbConfig' name='PbConfig' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Quantity' name='Quantity' date='2020-04-27 01:13:41' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!Option</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityInfo' name='QuantityInfo' date='2020-04-27 01:13:41' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!Value</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityMatrix' name='QuantityMatrix' date='2020-04-27 01:13:41' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Position' name='Position' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!Element</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Protein' name='Protein' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Quantity' name='Quantity' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!Quantity</t>
-  </si>
-  <si>
-    <t>!Reference</t>
-  </si>
-  <si>
-    <t>!QuantityName</t>
-  </si>
-  <si>
-    <t>!QuantityType</t>
-  </si>
-  <si>
-    <t>!Mean</t>
-  </si>
-  <si>
-    <t>!Std</t>
-  </si>
-  <si>
-    <t>!Min</t>
-  </si>
-  <si>
-    <t>!Max</t>
-  </si>
-  <si>
-    <t>!Median</t>
-  </si>
-  <si>
-    <t>!GeometricMean</t>
-  </si>
-  <si>
-    <t>!Sign</t>
-  </si>
-  <si>
-    <t>!ProbDist</t>
-  </si>
-  <si>
-    <t>!SBML:parameter:id</t>
-  </si>
-  <si>
-    <t>!Scale</t>
-  </si>
-  <si>
-    <t>!TimePoint</t>
-  </si>
-  <si>
-    <t>!Condition</t>
-  </si>
-  <si>
-    <t>!pH</t>
-  </si>
-  <si>
-    <t>!Temperature</t>
-  </si>
-  <si>
-    <t>!Location:SBML:compartment:id</t>
-  </si>
-  <si>
-    <t>!Compound</t>
-  </si>
-  <si>
-    <t>!Compound:SBML:species:id</t>
-  </si>
-  <si>
-    <t>!Reaction</t>
-  </si>
-  <si>
-    <t>!Reaction:SBML:reaction:id</t>
-  </si>
-  <si>
-    <t>!Enyzme</t>
-  </si>
-  <si>
-    <t>!Enyzme:SBML:species:id</t>
-  </si>
-  <si>
-    <t>!Enyzme:SBML:parameter:id</t>
-  </si>
-  <si>
-    <t>!Organism</t>
-  </si>
-  <si>
-    <t>!Provenance</t>
-  </si>
-  <si>
-    <t>!Identifiers:kegg.reaction</t>
-  </si>
-  <si>
-    <t>!Reaction:Identifiers:kegg.reaction</t>
-  </si>
-  <si>
-    <t>!Compound:Identifiers:kegg.compound</t>
-  </si>
-  <si>
-    <t>!BiologicalElement</t>
-  </si>
-  <si>
-    <t>!MathematicalType</t>
-  </si>
-  <si>
-    <t>!DataGeometricStd</t>
-  </si>
-  <si>
-    <t>!PriorMedian</t>
-  </si>
-  <si>
-    <t>!PriorStd</t>
-  </si>
-  <si>
-    <t>!PriorGeometricStd</t>
-  </si>
-  <si>
-    <t>!LowerBound</t>
-  </si>
-  <si>
-    <t>!UpperBound</t>
-  </si>
-  <si>
-    <t>!DataStd</t>
-  </si>
-  <si>
-    <t>!PhysicalType</t>
-  </si>
-  <si>
-    <t>!Dependence</t>
-  </si>
-  <si>
-    <t>!UseAsPriorInformation</t>
-  </si>
-  <si>
-    <t>!SBMLElement</t>
-  </si>
-  <si>
-    <t>!Abbreviation</t>
-  </si>
-  <si>
-    <t>!MatrixInfo</t>
-  </si>
-  <si>
-    <t>!SBO:equilibrium_constant</t>
-  </si>
-  <si>
-    <t>!SBO:Identifiers:obo.sbo</t>
-  </si>
-  <si>
-    <t>!SBO:concentration</t>
-  </si>
-  <si>
-    <t>!SBO:concentration [mM:Log10]:Median</t>
-  </si>
-  <si>
-    <t>!Concentration:Min</t>
-  </si>
-  <si>
-    <t>!Concentration:Max</t>
-  </si>
-  <si>
-    <t>!Parameter:SBML:parameter:id</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityInfo' name='QuantityInfo' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!Constant</t>
-  </si>
-  <si>
-    <t>!RelatedElement</t>
-  </si>
-  <si>
-    <t>!Scaling</t>
-  </si>
-  <si>
-    <t>!ErrorStd</t>
-  </si>
-  <si>
-    <t>!SBMLElementType</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='QuantityMatrix' name='QuantityMatrix' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!&gt;Table:Column</t>
-  </si>
-  <si>
-    <t>!&gt;Document:Table:Column</t>
-  </si>
-  <si>
-    <t>!Protein</t>
-  </si>
-  <si>
-    <t>!Protein:SBML:species:id</t>
-  </si>
-  <si>
-    <t>!&gt;Concentration:Glucose</t>
-  </si>
-  <si>
-    <t>!&gt;Concentration:Fructose</t>
-  </si>
-  <si>
-    <t>!&gt;Sample:t0</t>
-  </si>
-  <si>
-    <t>!&gt;Sample:t1</t>
-  </si>
-  <si>
-    <t>!&gt;TP:t0:mean</t>
-  </si>
-  <si>
-    <t>!&gt;TP:t0:std</t>
-  </si>
-  <si>
-    <t>!&gt;TP:t1:mean</t>
-  </si>
-  <si>
-    <t>!&gt;TP:t1:std</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Reaction' name='Reaction' date='2020-04-26 21:10:51' objTablesVersion='0.0.9' document='TestModel layout'</t>
-  </si>
-  <si>
-    <t>!Modifier</t>
-  </si>
-  <si>
-    <t>!SBML:reaction:id</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Reaction' name='Reaction' date='2020-04-27 01:13:41' objTablesVersion='0.0.9' document='TestModel layout'</t>
   </si>
   <si>
     <t>!ReactionFormula</t>
-  </si>
-  <si>
-    <t>!Enzyme</t>
-  </si>
-  <si>
-    <t>!Model</t>
-  </si>
-  <si>
-    <t>!SubreactionOf</t>
   </si>
   <si>
     <t>!IsComplete</t>
@@ -6951,19 +6528,7 @@
     <t>!IsExchangeReaction</t>
   </si>
   <si>
-    <t>!Flux</t>
-  </si>
-  <si>
     <t>!IsNonEnzymatic</t>
-  </si>
-  <si>
-    <t>!Gene:Symbol</t>
-  </si>
-  <si>
-    <t>!Enzyme:SBML:species:id</t>
-  </si>
-  <si>
-    <t>!Enzyme:SBML:parameter:id</t>
   </si>
   <si>
     <t>!BuildReaction</t>
@@ -6975,154 +6540,43 @@
     <t>!BuildEnzymeProduction</t>
   </si>
   <si>
-    <t>!Identifiers:obo.sbo</t>
-  </si>
-  <si>
-    <t>!Identifiers:ec-code</t>
-  </si>
-  <si>
-    <t>!SBML:fbc:LowerBound</t>
-  </si>
-  <si>
-    <t>!SBML:fbc:UpperBound</t>
-  </si>
-  <si>
-    <t>!Regulator</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 Species_1 &lt;=&gt; 1 Species_2 &lt;=&gt; </t>
   </si>
   <si>
     <t xml:space="preserve">1 Species_2 &lt;=&gt; 1 Species_1 &lt;=&gt; </t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-04-27 01:13:42' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!Stoichiometry</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Regulator' name='Regulator' date='2020-04-27 01:13:42' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!Substrate</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relation' name='Relation' date='2020-04-27 01:13:42' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!Product</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relationship' name='Relationship' date='2020-04-27 01:13:42' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Regulator' name='Regulator' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrix' name='SparseMatrix' date='2020-04-27 01:13:42' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!TargetGene</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-04-27 01:13:42' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!TargetOperon</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-04-27 01:13:42' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!TargetPromoter</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixRow' name='SparseMatrixRow' date='2020-04-27 01:13:42' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relation' name='Relation' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-04-27 01:13:42' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!FromObject</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconContingencyList' name='rxnconContingencyList' date='2020-04-27 01:13:42' objTablesVersion='0.0.9'</t>
   </si>
   <si>
-    <t>!ToObject</t>
-  </si>
-  <si>
-    <t>!IsSymmetric</t>
-  </si>
-  <si>
-    <t>!Value:QuantityType</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='Relationship' name='Relationship' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!Relation</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrix' name='SparseMatrix' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!RowID</t>
-  </si>
-  <si>
-    <t>!ColumnID</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!ColumnString</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!RowNumber</t>
-  </si>
-  <si>
-    <t>!ColumnNumber</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='SparseMatrixRow' name='SparseMatrixRow' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!RowString</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!ReactionID</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconContingencyList' name='rxnconContingencyList' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!UID:Contingency</t>
-  </si>
-  <si>
-    <t>!Target</t>
-  </si>
-  <si>
-    <t>!Contingency</t>
-  </si>
-  <si>
-    <t>!Reference:Identifiers:pubmed</t>
-  </si>
-  <si>
-    <t>!Quality</t>
-  </si>
-  <si>
-    <t>!InternalComplexID</t>
-  </si>
-  <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' id='rxnconReactionList' name='rxnconReactionList' date='2020-04-26 21:10:51' objTablesVersion='0.0.9'</t>
-  </si>
-  <si>
-    <t>!UID:Reaction</t>
-  </si>
-  <si>
-    <t>!ComponentA:Name</t>
-  </si>
-  <si>
-    <t>!ComponentA:Domain</t>
-  </si>
-  <si>
-    <t>!ComponentA:Residue</t>
-  </si>
-  <si>
-    <t>!ComponentB:Name</t>
-  </si>
-  <si>
-    <t>!ComponentB:Domain</t>
-  </si>
-  <si>
-    <t>!ComponentB:Residue</t>
-  </si>
-  <si>
-    <t>!Literature:Identifiers:pubmed</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconReactionList' name='rxnconReactionList' date='2020-04-27 01:13:42' objTablesVersion='0.0.9'</t>
   </si>
 </sst>
 </file>
@@ -7157,7 +6611,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7176,6 +6630,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -7189,7 +6648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7201,6 +6660,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7505,8 +6967,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="20" width="15.7109375" customWidth="1"/>
-    <col min="21" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.01" customHeight="1">
@@ -7514,48 +6976,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
     </row>
     <row r="2" spans="1:20" ht="15.01" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
     </row>
     <row r="3" spans="1:20" ht="15.01" customHeight="1">
       <c r="A3" s="3" t="s">
@@ -7564,90 +6990,18 @@
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>21</v>
-      </c>
     </row>
     <row r="4" spans="1:20" ht="15.01" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A3:T4"/>
+  <autoFilter ref="A3:B4"/>
   <dataValidations count="20">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A4">
       <formula1>255</formula1>
@@ -7729,31 +7083,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+        <v>51</v>
+      </c>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:C2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="3">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Element" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Element" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -7783,79 +7127,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="15" width="15.7109375" customWidth="1"/>
-    <col min="16" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+        <v>52</v>
+      </c>
     </row>
     <row r="2" spans="1:15" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:O2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="15">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -7923,319 +7209,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="75" width="15.7109375" customWidth="1"/>
-    <col min="76" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:75" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
-      <c r="AX1" s="2"/>
-      <c r="AY1" s="2"/>
-      <c r="AZ1" s="2"/>
-      <c r="BA1" s="2"/>
-      <c r="BB1" s="2"/>
-      <c r="BC1" s="2"/>
-      <c r="BD1" s="2"/>
-      <c r="BE1" s="2"/>
-      <c r="BF1" s="2"/>
-      <c r="BG1" s="2"/>
-      <c r="BH1" s="2"/>
-      <c r="BI1" s="2"/>
-      <c r="BJ1" s="2"/>
-      <c r="BK1" s="2"/>
-      <c r="BL1" s="2"/>
-      <c r="BM1" s="2"/>
-      <c r="BN1" s="2"/>
-      <c r="BO1" s="2"/>
-      <c r="BP1" s="2"/>
-      <c r="BQ1" s="2"/>
-      <c r="BR1" s="2"/>
-      <c r="BS1" s="2"/>
-      <c r="BT1" s="2"/>
-      <c r="BU1" s="2"/>
-      <c r="BV1" s="2"/>
-      <c r="BW1" s="2"/>
+        <v>53</v>
+      </c>
     </row>
     <row r="2" spans="1:75" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AY2" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="BA2" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="BB2" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="BC2" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="BD2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="BE2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="BF2" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="BG2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="BH2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="BI2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="BJ2" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="BK2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL2" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="BM2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="BN2" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="BO2" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="BP2" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="BQ2" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="BR2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="BS2" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="BT2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="BU2" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="BV2" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="BW2" s="3" t="s">
-        <v>172</v>
-      </c>
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:BW2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="75">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -8503,95 +7491,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+        <v>54</v>
+      </c>
     </row>
     <row r="2" spans="1:19" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>165</v>
-      </c>
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:S2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="19">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="QuantityType" error="QuantityType (e.g. from SBO)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="QuantityType" prompt="QuantityType (e.g. from SBO)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -8673,215 +7587,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="49" width="15.7109375" customWidth="1"/>
-    <col min="50" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
-      <c r="AV1" s="2"/>
-      <c r="AW1" s="2"/>
+        <v>55</v>
+      </c>
     </row>
     <row r="2" spans="1:49" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>189</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>191</v>
-      </c>
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:AW2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="49">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -9065,13 +7785,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="47" width="15.7109375" customWidth="1"/>
-    <col min="48" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>192</v>
+        <v>56</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -9082,328 +7802,106 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="2"/>
-      <c r="AK1" s="2"/>
-      <c r="AL1" s="2"/>
-      <c r="AM1" s="2"/>
-      <c r="AN1" s="2"/>
-      <c r="AO1" s="2"/>
-      <c r="AP1" s="2"/>
-      <c r="AQ1" s="2"/>
-      <c r="AR1" s="2"/>
-      <c r="AS1" s="2"/>
-      <c r="AT1" s="2"/>
-      <c r="AU1" s="2"/>
     </row>
     <row r="2" spans="1:47" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>193</v>
+        <v>61</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>196</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>198</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>199</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>203</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="15.01" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4" t="b">
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="V3" s="4" t="b">
+      <c r="D3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="W3" s="4" t="b">
+      <c r="E3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="X3" s="4" t="b">
+      <c r="F3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4" t="b">
+      <c r="G3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4"/>
-      <c r="AI3" s="4" t="b">
+      <c r="H3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AJ3" s="4" t="b">
+      <c r="I3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AK3" s="4" t="b">
+      <c r="J3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AL3" s="4"/>
-      <c r="AM3" s="4"/>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4"/>
     </row>
     <row r="4" spans="1:47" ht="15.01" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4" t="b">
+      <c r="A4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="V4" s="4" t="b">
+      <c r="D4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="W4" s="4" t="b">
+      <c r="E4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="X4" s="4" t="b">
+      <c r="F4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4" t="b">
+      <c r="G4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4"/>
-      <c r="AI4" s="4" t="b">
+      <c r="H4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AJ4" s="4" t="b">
+      <c r="I4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AK4" s="4" t="b">
+      <c r="J4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AL4" s="4"/>
-      <c r="AM4" s="4"/>
-      <c r="AN4" s="4"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:AU4"/>
+  <autoFilter ref="A2:J4"/>
   <dataValidations count="47">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A4">
       <formula1>255</formula1>
@@ -9566,43 +8064,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+        <v>68</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>141</v>
-      </c>
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:F2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="6">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Identifier shortname of the reaction&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Identifier shortname of the reaction&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -9639,87 +8115,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="17" width="15.7109375" customWidth="1"/>
-    <col min="18" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
+        <v>69</v>
+      </c>
     </row>
     <row r="2" spans="1:17" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:Q2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="17">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -9791,59 +8201,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="10" width="15.7109375" customWidth="1"/>
-    <col min="11" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="2" spans="1:10" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>230</v>
-      </c>
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:J2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="10">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -9893,47 +8265,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+        <v>71</v>
+      </c>
     </row>
     <row r="2" spans="1:7" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>232</v>
-      </c>
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:G2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="7">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -9974,249 +8320,63 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="35" width="15.7109375" customWidth="1"/>
-    <col min="36" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
     </row>
     <row r="2" spans="1:35" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
         <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="15.01" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4" t="b">
+      <c r="A3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-      <c r="AB3" s="4"/>
-      <c r="AC3" s="4"/>
-      <c r="AD3" s="4"/>
-      <c r="AE3" s="4"/>
-      <c r="AF3" s="4"/>
-      <c r="AG3" s="4"/>
-      <c r="AH3" s="4" t="b">
+      <c r="D3" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AI3" s="4"/>
     </row>
     <row r="4" spans="1:35" ht="15.01" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-      <c r="P4" s="4"/>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="S4" s="4"/>
-      <c r="T4" s="4"/>
-      <c r="U4" s="4"/>
-      <c r="V4" s="4"/>
-      <c r="W4" s="4"/>
-      <c r="X4" s="4" t="b">
+      <c r="A4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="Y4" s="4"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
-      <c r="AD4" s="4"/>
-      <c r="AE4" s="4"/>
-      <c r="AF4" s="4"/>
-      <c r="AG4" s="4"/>
-      <c r="AH4" s="4" t="b">
+      <c r="D4" s="4" t="b">
         <v>0</v>
       </c>
-      <c r="AI4" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:AI4"/>
+  <autoFilter ref="A2:D4"/>
   <dataValidations count="35">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A4">
       <formula1>255</formula1>
@@ -10347,31 +8507,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+        <v>72</v>
+      </c>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:C2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="3">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -10400,27 +8550,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B1" s="2"/>
+        <v>73</v>
+      </c>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>237</v>
-      </c>
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:B2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ColumnID" error="Column identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ColumnID" prompt="Column identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -10445,31 +8589,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
+        <v>74</v>
+      </c>
     </row>
     <row r="2" spans="1:3" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:C2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="3">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowNumber" error="Number of row&#10;&#10;Value must be an integer." promptTitle="RowNumber" prompt="Number of row&#10;&#10;Enter an integer." sqref="A2:A3">
       <formula1>-32768</formula1>
@@ -10500,27 +8634,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B1" s="2"/>
+        <v>75</v>
+      </c>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>242</v>
-      </c>
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:B2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="RowID" error="Row identifier&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="RowID" prompt="Row identifier&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -10545,39 +8673,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+        <v>76</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>219</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:E2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ReactionID" error="Reaction shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ReactionID" prompt="Reaction shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -10611,51 +8721,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="8" width="15.7109375" customWidth="1"/>
-    <col min="9" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+        <v>77</v>
+      </c>
     </row>
     <row r="2" spans="1:8" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>249</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>251</v>
-      </c>
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:H2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="8">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="UID:Contingency" error="ID for contingency&#10;&#10;Value must be an integer." promptTitle="UID:Contingency" prompt="ID for contingency&#10;&#10;Enter an integer." sqref="A2:A3">
       <formula1>-32768</formula1>
@@ -10699,67 +8779,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="12" width="15.7109375" customWidth="1"/>
-    <col min="13" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+        <v>78</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>255</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>256</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:L2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="12">
     <dataValidation type="whole" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="ID for reaction&#10;&#10;Value must be an integer." promptTitle="ID" prompt="ID for reaction&#10;&#10;Enter an integer." sqref="A2:A3">
       <formula1>-32768</formula1>
@@ -10815,39 +8849,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:E2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ComponentName" error="Name of component (table, column, attribute to be defined)&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ComponentName" prompt="Name of component (table, column, attribute to be defined)&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -10881,95 +8897,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="19" width="15.7109375" customWidth="1"/>
-    <col min="20" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:19" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:S2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="19">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -11047,43 +8989,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+        <v>13</v>
+      </c>
     </row>
     <row r="2" spans="1:6" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>62</v>
-      </c>
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:F2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="6">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Unique identifier of objective in FBC package&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Unique identifier of objective in FBC package&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -11120,107 +9040,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="22" width="15.7109375" customWidth="1"/>
-    <col min="23" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="2" spans="1:22" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>72</v>
-      </c>
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:V2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="22">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Comment" error="Comment&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Comment" prompt="Comment&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -11307,13 +9141,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="13" width="15.7109375" customWidth="1"/>
-    <col min="14" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="10" width="15.7109375" customWidth="1"/>
+    <col min="11" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -11324,794 +9158,704 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
     </row>
     <row r="2" spans="1:13" ht="15.01" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>79</v>
+        <v>22</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.01" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
-        <v>86</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="I3" s="4">
+        <v>400</v>
+      </c>
       <c r="J3" s="4">
-        <v>400</v>
-      </c>
-      <c r="K3" s="4">
         <v>220</v>
       </c>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
     </row>
     <row r="4" spans="1:13" ht="15.01" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C4" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>22</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="4">
+        <v>5</v>
+      </c>
       <c r="H4" s="4">
         <v>5</v>
       </c>
       <c r="I4" s="4">
-        <v>5</v>
+        <v>390</v>
       </c>
       <c r="J4" s="4">
-        <v>390</v>
-      </c>
-      <c r="K4" s="4">
         <v>210</v>
       </c>
-      <c r="L4" s="4"/>
-      <c r="M4" s="4"/>
     </row>
     <row r="5" spans="1:13" ht="15.01" customHeight="1">
       <c r="A5" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" s="4"/>
+      <c r="E5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4">
+        <v>80</v>
+      </c>
       <c r="H5" s="4">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="I5" s="4">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="J5" s="4">
-        <v>240</v>
-      </c>
-      <c r="K5" s="4">
         <v>24</v>
       </c>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
     </row>
     <row r="6" spans="1:13" ht="15.01" customHeight="1">
       <c r="A6" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4">
         <v>92</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="4"/>
       <c r="H6" s="4">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="I6" s="4">
-        <v>26</v>
+        <v>228</v>
       </c>
       <c r="J6" s="4">
-        <v>228</v>
-      </c>
-      <c r="K6" s="4">
         <v>24</v>
       </c>
-      <c r="L6" s="4"/>
-      <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="15.01" customHeight="1">
       <c r="A7" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4" t="s">
-        <v>90</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="4"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="4"/>
+      <c r="E7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4">
+        <v>80</v>
+      </c>
       <c r="H7" s="4">
-        <v>80</v>
+        <v>170</v>
       </c>
       <c r="I7" s="4">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="J7" s="4">
-        <v>240</v>
-      </c>
-      <c r="K7" s="4">
         <v>24</v>
       </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="1:13" ht="15.01" customHeight="1">
       <c r="A8" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4">
         <v>92</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="4"/>
       <c r="H8" s="4">
-        <v>92</v>
+        <v>170</v>
       </c>
       <c r="I8" s="4">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="J8" s="4">
-        <v>228</v>
-      </c>
-      <c r="K8" s="4">
         <v>24</v>
       </c>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
     </row>
     <row r="9" spans="1:13" ht="15.01" customHeight="1">
       <c r="A9" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4" t="s">
-        <v>98</v>
+        <v>35</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="4">
+        <v>165</v>
       </c>
       <c r="H9" s="4">
-        <v>165</v>
-      </c>
-      <c r="I9" s="4">
         <v>105</v>
       </c>
+      <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
     </row>
     <row r="10" spans="1:13" ht="15.01" customHeight="1">
       <c r="A10" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4" t="s">
-        <v>99</v>
+        <v>35</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="4">
+        <v>165</v>
       </c>
       <c r="H10" s="4">
-        <v>165</v>
-      </c>
-      <c r="I10" s="4">
         <v>115</v>
       </c>
+      <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:13" ht="15.01" customHeight="1">
       <c r="A11" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="E11" s="4" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>98</v>
+        <v>38</v>
+      </c>
+      <c r="G11" s="4">
+        <v>165</v>
       </c>
       <c r="H11" s="4">
-        <v>165</v>
-      </c>
-      <c r="I11" s="4">
         <v>105</v>
       </c>
+      <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
     </row>
     <row r="12" spans="1:13" ht="15.01" customHeight="1">
       <c r="A12" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="E12" s="4" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>99</v>
+        <v>39</v>
+      </c>
+      <c r="G12" s="4">
+        <v>195</v>
       </c>
       <c r="H12" s="4">
-        <v>195</v>
-      </c>
-      <c r="I12" s="4">
         <v>60</v>
       </c>
+      <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="4"/>
     </row>
     <row r="13" spans="1:13" ht="15.01" customHeight="1">
       <c r="A13" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="E13" s="4" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>102</v>
+        <v>42</v>
+      </c>
+      <c r="G13" s="4">
+        <v>165</v>
       </c>
       <c r="H13" s="4">
-        <v>165</v>
-      </c>
-      <c r="I13" s="4">
         <v>90</v>
       </c>
+      <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-      <c r="M13" s="4"/>
     </row>
     <row r="14" spans="1:13" ht="15.01" customHeight="1">
       <c r="A14" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>40</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="E14" s="4" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>103</v>
+        <v>43</v>
+      </c>
+      <c r="G14" s="4">
+        <v>165</v>
       </c>
       <c r="H14" s="4">
-        <v>165</v>
-      </c>
-      <c r="I14" s="4">
         <v>90</v>
       </c>
+      <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="4"/>
     </row>
     <row r="15" spans="1:13" ht="15.01" customHeight="1">
       <c r="A15" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D15" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="E15" s="4" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>98</v>
+        <v>38</v>
+      </c>
+      <c r="G15" s="4">
+        <v>165</v>
       </c>
       <c r="H15" s="4">
-        <v>165</v>
-      </c>
-      <c r="I15" s="4">
         <v>115</v>
       </c>
+      <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
     </row>
     <row r="16" spans="1:13" ht="15.01" customHeight="1">
       <c r="A16" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D16" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="E16" s="4" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>99</v>
+        <v>39</v>
+      </c>
+      <c r="G16" s="4">
+        <v>195</v>
       </c>
       <c r="H16" s="4">
-        <v>195</v>
-      </c>
-      <c r="I16" s="4">
         <v>160</v>
       </c>
+      <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
     </row>
-    <row r="17" spans="1:13" ht="15.01" customHeight="1">
+    <row r="17" spans="1:10" ht="15.01" customHeight="1">
       <c r="A17" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D17" s="4"/>
+        <v>44</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="E17" s="4" t="s">
-        <v>97</v>
+        <v>33</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G17" s="4" t="s">
-        <v>102</v>
+        <v>42</v>
+      </c>
+      <c r="G17" s="4">
+        <v>165</v>
       </c>
       <c r="H17" s="4">
+        <v>130</v>
+      </c>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A18" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G18" s="4">
         <v>165</v>
       </c>
-      <c r="I17" s="4">
+      <c r="H18" s="4">
         <v>130</v>
       </c>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
-    <row r="18" spans="1:13" ht="15.01" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H18" s="4">
-        <v>165</v>
-      </c>
-      <c r="I18" s="4">
+    <row r="19" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="4">
+        <v>235</v>
+      </c>
+      <c r="H19" s="4">
+        <v>105</v>
+      </c>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="4">
+        <v>235</v>
+      </c>
+      <c r="H20" s="4">
+        <v>115</v>
+      </c>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="4">
+        <v>235</v>
+      </c>
+      <c r="H21" s="4">
+        <v>115</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A22" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G22" s="4">
+        <v>205</v>
+      </c>
+      <c r="H22" s="4">
+        <v>160</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A23" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G23" s="4">
+        <v>235</v>
+      </c>
+      <c r="H23" s="4">
         <v>130</v>
       </c>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
     </row>
-    <row r="19" spans="1:13" ht="15.01" customHeight="1">
-      <c r="A19" s="4" t="s">
+    <row r="24" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A24" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="4">
+        <v>235</v>
+      </c>
+      <c r="H24" s="4">
+        <v>130</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A25" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" s="4">
+        <v>235</v>
+      </c>
+      <c r="H25" s="4">
         <v>105</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" s="4">
+        <v>205</v>
+      </c>
+      <c r="H26" s="4">
+        <v>60</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A27" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="4">
         <v>235</v>
       </c>
-      <c r="I19" s="4">
-        <v>105</v>
-      </c>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
+      <c r="H27" s="4">
+        <v>90</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
     </row>
-    <row r="20" spans="1:13" ht="15.01" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="4">
+    <row r="28" spans="1:10" ht="15.01" customHeight="1">
+      <c r="A28" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="4">
         <v>235</v>
       </c>
-      <c r="I20" s="4">
-        <v>115</v>
-      </c>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-    </row>
-    <row r="21" spans="1:13" ht="15.01" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H21" s="4">
-        <v>235</v>
-      </c>
-      <c r="I21" s="4">
-        <v>115</v>
-      </c>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.01" customHeight="1">
-      <c r="A22" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="4">
-        <v>205</v>
-      </c>
-      <c r="I22" s="4">
-        <v>160</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-    </row>
-    <row r="23" spans="1:13" ht="15.01" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H23" s="4">
-        <v>235</v>
-      </c>
-      <c r="I23" s="4">
-        <v>130</v>
-      </c>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-    </row>
-    <row r="24" spans="1:13" ht="15.01" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="G24" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H24" s="4">
-        <v>235</v>
-      </c>
-      <c r="I24" s="4">
-        <v>130</v>
-      </c>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.01" customHeight="1">
-      <c r="A25" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="H25" s="4">
-        <v>235</v>
-      </c>
-      <c r="I25" s="4">
-        <v>105</v>
-      </c>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-    </row>
-    <row r="26" spans="1:13" ht="15.01" customHeight="1">
-      <c r="A26" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G26" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="H26" s="4">
-        <v>205</v>
-      </c>
-      <c r="I26" s="4">
-        <v>60</v>
-      </c>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-    </row>
-    <row r="27" spans="1:13" ht="15.01" customHeight="1">
-      <c r="A27" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G27" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="H27" s="4">
-        <v>235</v>
-      </c>
-      <c r="I27" s="4">
+      <c r="H28" s="4">
         <v>90</v>
       </c>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-    </row>
-    <row r="28" spans="1:13" ht="15.01" customHeight="1">
-      <c r="A28" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="G28" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="H28" s="4">
-        <v>235</v>
-      </c>
-      <c r="I28" s="4">
-        <v>90</v>
-      </c>
+      <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:M28"/>
+  <autoFilter ref="A2:J28"/>
   <dataValidations count="13">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="ID" error="Unique identifier of layout package&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="ID" prompt="Unique identifier of layout package&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A3:A28">
       <formula1>255</formula1>
@@ -12173,39 +9917,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+        <v>49</v>
+      </c>
     </row>
     <row r="2" spans="1:5" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>6</v>
-      </c>
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:E2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="5">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Sample" error="Measurement value shortname&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Sample" prompt="Measurement value shortname&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>
@@ -12239,27 +9965,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.01" customHeight="1" zeroHeight="1"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="16384" width="0" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="16384" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.01" customHeight="1">
       <c r="A1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B1" s="2"/>
+        <v>50</v>
+      </c>
     </row>
     <row r="2" spans="1:2" ht="15.01" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="A2" s="5"/>
     </row>
   </sheetData>
   <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <autoFilter ref="A2:B2"/>
+  <autoFilter ref="A2:A2"/>
   <dataValidations count="2">
     <dataValidation type="textLength" operator="lessThanOrEqual" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Option" error="Which option is addressed&#10;&#10;Value must be a string.&#10;&#10;Value must be less than or equal to 255 characters." promptTitle="Option" prompt="Which option is addressed&#10;&#10;Enter a string.&#10;&#10;Value must be less than or equal to 255 characters." sqref="A2:A3">
       <formula1>255</formula1>

--- a/examples/sbtab/layout_model.xlsx
+++ b/examples/sbtab/layout_model.xlsx
@@ -6342,10 +6342,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="79">
   <si>
-    <t>!!!ObjTables schema='SBtab' objTablesVersion='0.0.9' date='2020-04-27 01:13:41'</t>
+    <t>!!!ObjTables schema='SBtab' objTablesVersion='1.0.0' date='2020-05-29 00:27:38'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compartment' name='Compartment' date='2020-04-27 01:13:41' objTablesVersion='0.0.9' document='TestModel layout'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compartment' name='Compartment' date='2018-11-23' objTablesVersion='1.0.0' document='TestModel layout'</t>
   </si>
   <si>
     <t>!Name</t>
@@ -6357,7 +6357,7 @@
     <t>Compartment_1</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compound' name='Compound' date='2020-04-27 01:13:41' objTablesVersion='0.0.9' document='TestModel layout'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Compound' name='Compound' date='2018-11-23' objTablesVersion='1.0.0' document='TestModel layout'</t>
   </si>
   <si>
     <t>!Location</t>
@@ -6375,19 +6375,19 @@
     <t>Species_2</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Definition' name='Definition' date='2020-04-27 01:13:41' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Definition' name='Definition' date='2020-05-29 00:27:38' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Enzyme' name='Enzyme' date='2020-04-27 01:13:41' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Enzyme' name='Enzyme' date='2020-05-29 00:27:38' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='FbcObjective' name='FbcObjective' date='2020-04-27 01:13:41' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='FbcObjective' name='FbcObjective' date='2020-05-29 00:27:38' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Gene' name='Gene' date='2020-04-27 01:13:41' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Gene' name='Gene' date='2020-05-29 00:27:38' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Layout' name='Layout' date='2020-04-27 01:13:41' objTablesVersion='0.0.9' document='TestModel layout'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Layout' name='Layout' date='2018-11-23' objTablesVersion='1.0.0' document='TestModel layout'</t>
   </si>
   <si>
     <t>!SBML:layout:modelEntity</t>
@@ -6489,28 +6489,28 @@
     <t>SpeciesReferenceGlyph_4</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Measurement' name='Measurement' date='2020-04-27 01:13:41' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Measurement' name='Measurement' date='2020-05-29 00:27:38' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='PbConfig' name='PbConfig' date='2020-04-27 01:13:41' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='PbConfig' name='PbConfig' date='2020-05-29 00:27:38' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Position' name='Position' date='2020-04-27 01:13:41' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Position' name='Position' date='2020-05-29 00:27:38' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Protein' name='Protein' date='2020-04-27 01:13:41' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Protein' name='Protein' date='2020-05-29 00:27:38' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Quantity' name='Quantity' date='2020-04-27 01:13:41' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Quantity' name='Quantity' date='2020-05-29 00:27:38' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityInfo' name='QuantityInfo' date='2020-04-27 01:13:41' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityInfo' name='QuantityInfo' date='2020-05-29 00:27:38' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityMatrix' name='QuantityMatrix' date='2020-04-27 01:13:41' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='QuantityMatrix' name='QuantityMatrix' date='2020-05-29 00:27:38' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Reaction' name='Reaction' date='2020-04-27 01:13:41' objTablesVersion='0.0.9' document='TestModel layout'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Reaction' name='Reaction' date='2018-11-23' objTablesVersion='1.0.0' document='TestModel layout'</t>
   </si>
   <si>
     <t>!ReactionFormula</t>
@@ -6546,37 +6546,37 @@
     <t xml:space="preserve">1 Species_2 &lt;=&gt; 1 Species_1 &lt;=&gt; </t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-04-27 01:13:42' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='ReactionStoichiometry' name='ReactionStoichiometry' date='2020-05-29 00:27:38' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Regulator' name='Regulator' date='2020-04-27 01:13:42' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Regulator' name='Regulator' date='2020-05-29 00:27:38' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relation' name='Relation' date='2020-04-27 01:13:42' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relation' name='Relation' date='2020-05-29 00:27:38' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relationship' name='Relationship' date='2020-04-27 01:13:42' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='Relationship' name='Relationship' date='2020-05-29 00:27:38' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrix' name='SparseMatrix' date='2020-04-27 01:13:42' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrix' name='SparseMatrix' date='2020-05-29 00:27:38' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-04-27 01:13:42' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixColumn' name='SparseMatrixColumn' date='2020-05-29 00:27:38' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-04-27 01:13:42' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixOrdered' name='SparseMatrixOrdered' date='2020-05-29 00:27:38' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixRow' name='SparseMatrixRow' date='2020-04-27 01:13:42' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='SparseMatrixRow' name='SparseMatrixRow' date='2020-05-29 00:27:38' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-04-27 01:13:42' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='StoichiometricMatrix' name='StoichiometricMatrix' date='2020-05-29 00:27:38' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconContingencyList' name='rxnconContingencyList' date='2020-04-27 01:13:42' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconContingencyList' name='rxnconContingencyList' date='2020-05-29 00:27:38' objTablesVersion='1.0.0'</t>
   </si>
   <si>
-    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconReactionList' name='rxnconReactionList' date='2020-04-27 01:13:42' objTablesVersion='0.0.9'</t>
+    <t>!!ObjTables schema='SBtab' type='Data' tableFormat='row' class='rxnconReactionList' name='rxnconReactionList' date='2020-05-29 00:27:38' objTablesVersion='1.0.0'</t>
   </si>
 </sst>
 </file>
